--- a/Neural Network Results.xlsx
+++ b/Neural Network Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="orig, cross-validate" sheetId="1" r:id="rId1"/>
@@ -6115,7 +6115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BK21"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AX11" sqref="AX11"/>
     </sheetView>
   </sheetViews>
@@ -12237,8 +12237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN13" workbookViewId="0">
-      <selection activeCell="BG32" sqref="BG32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21419,7 +21419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BK21"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AR3" sqref="AR3:BK3"/>
     </sheetView>
   </sheetViews>

--- a/Neural Network Results.xlsx
+++ b/Neural Network Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="5"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="orig, cross-validate" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4140" uniqueCount="527">
   <si>
     <t>0,024</t>
   </si>
@@ -1505,6 +1505,111 @@
   </si>
   <si>
     <t>0,396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 TP Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP Rate </t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0,780</t>
+  </si>
+  <si>
+    <t>0,809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0,622</t>
+  </si>
+  <si>
+    <t>0,761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0,615</t>
+  </si>
+  <si>
+    <t>0,084</t>
+  </si>
+  <si>
+    <t>0,445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0,686</t>
+  </si>
+  <si>
+    <t>0,087</t>
+  </si>
+  <si>
+    <t>0,475</t>
+  </si>
+  <si>
+    <t>0,561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0,443</t>
+  </si>
+  <si>
+    <t>0,482</t>
+  </si>
+  <si>
+    <t>0,700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0,069</t>
+  </si>
+  <si>
+    <t>0,124</t>
+  </si>
+  <si>
+    <t>0,063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0,558</t>
+  </si>
+  <si>
+    <t>0,137</t>
+  </si>
+  <si>
+    <t>0,313</t>
+  </si>
+  <si>
+    <t>0,558</t>
+  </si>
+  <si>
+    <t>0,710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0,213</t>
+  </si>
+  <si>
+    <t>0,075</t>
+  </si>
+  <si>
+    <t>0,237</t>
+  </si>
+  <si>
+    <t>0,213</t>
+  </si>
+  <si>
+    <t>0,225</t>
+  </si>
+  <si>
+    <t>0,400</t>
+  </si>
+  <si>
+    <t>0,331</t>
+  </si>
+  <si>
+    <t>0,356</t>
+  </si>
+  <si>
+    <t>0,667</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1566,6 +1671,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18356,13 +18467,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BK21"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
@@ -20469,7 +20585,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>70</v>
       </c>
@@ -20657,7 +20773,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>71</v>
       </c>
@@ -20845,7 +20961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>72</v>
       </c>
@@ -21033,7 +21149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>73</v>
       </c>
@@ -21221,7 +21337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>74</v>
       </c>
@@ -21408,6 +21524,529 @@
       <c r="BK21" t="s">
         <v>491</v>
       </c>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B26" t="s">
+        <v>493</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s">
+        <v>494</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>496</v>
+      </c>
+      <c r="F27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>366</v>
+      </c>
+      <c r="D28" t="s">
+        <v>418</v>
+      </c>
+      <c r="E28" t="s">
+        <v>401</v>
+      </c>
+      <c r="F28" t="s">
+        <v>498</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0.622</v>
+      </c>
+      <c r="L28" s="9">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0.622</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0.497</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C29" t="s">
+        <v>501</v>
+      </c>
+      <c r="D29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E29" t="s">
+        <v>434</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="L29" s="9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B30" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" t="s">
+        <v>504</v>
+      </c>
+      <c r="D30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E30" t="s">
+        <v>505</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="L30" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="P30" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E31" t="s">
+        <v>507</v>
+      </c>
+      <c r="F31" t="s">
+        <v>508</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.443</v>
+      </c>
+      <c r="L31" s="9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0.443</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B32" t="s">
+        <v>510</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>511</v>
+      </c>
+      <c r="F32" t="s">
+        <v>358</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="K32" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0.124</v>
+      </c>
+      <c r="M32" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N32" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="O32" s="9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B33" t="s">
+        <v>513</v>
+      </c>
+      <c r="C33" t="s">
+        <v>514</v>
+      </c>
+      <c r="D33" t="s">
+        <v>515</v>
+      </c>
+      <c r="E33" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" t="s">
+        <v>516</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.313</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C35" t="s">
+        <v>520</v>
+      </c>
+      <c r="D35" t="s">
+        <v>521</v>
+      </c>
+      <c r="E35" t="s">
+        <v>522</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="L35" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>523</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" t="s">
+        <v>524</v>
+      </c>
+      <c r="D37" t="s">
+        <v>523</v>
+      </c>
+      <c r="E37" t="s">
+        <v>525</v>
+      </c>
+      <c r="F37" t="s">
+        <v>526</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L37" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="Q37" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21419,8 +22058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3:BK3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
